--- a/7/2/2/1/2/2/Otros intermediarios y auxiliares financieros 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/2/Otros intermediarios y auxiliares financieros 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK75"/>
+  <dimension ref="A1:AK76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9065,19 +9068,19 @@
         <v>110</v>
       </c>
       <c r="B75">
-        <v>182492</v>
+        <v>182406</v>
       </c>
       <c r="C75">
-        <v>6285</v>
+        <v>6292</v>
       </c>
       <c r="D75">
         <v>3003</v>
       </c>
       <c r="E75">
-        <v>3282</v>
+        <v>3289</v>
       </c>
       <c r="F75">
-        <v>25636</v>
+        <v>25635</v>
       </c>
       <c r="G75">
         <v>597</v>
@@ -9089,22 +9092,22 @@
         <v>111</v>
       </c>
       <c r="J75">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="K75">
         <v>925</v>
       </c>
       <c r="L75">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="M75">
-        <v>120977</v>
+        <v>121149</v>
       </c>
       <c r="N75">
-        <v>103144</v>
+        <v>103320</v>
       </c>
       <c r="O75">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="P75">
         <v>16190</v>
@@ -9113,13 +9116,13 @@
         <v>1496</v>
       </c>
       <c r="R75">
-        <v>21972</v>
+        <v>21707</v>
       </c>
       <c r="S75">
-        <v>4337</v>
+        <v>4641</v>
       </c>
       <c r="T75">
-        <v>178156</v>
+        <v>177765</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -9128,28 +9131,28 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>10155</v>
+        <v>10510</v>
       </c>
       <c r="X75">
         <v>413</v>
       </c>
       <c r="Y75">
-        <v>9742</v>
+        <v>10097</v>
       </c>
       <c r="Z75">
-        <v>9337</v>
+        <v>8841</v>
       </c>
       <c r="AA75">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="AB75">
-        <v>5949</v>
+        <v>5458</v>
       </c>
       <c r="AC75">
-        <v>143905</v>
+        <v>143833</v>
       </c>
       <c r="AD75">
-        <v>93132</v>
+        <v>93060</v>
       </c>
       <c r="AE75">
         <v>0</v>
@@ -9158,19 +9161,132 @@
         <v>50773</v>
       </c>
       <c r="AG75">
-        <v>14759</v>
+        <v>14581</v>
       </c>
       <c r="AH75">
-        <v>39290</v>
+        <v>39005</v>
       </c>
       <c r="AI75">
-        <v>45445</v>
+        <v>45438</v>
       </c>
       <c r="AJ75">
-        <v>8365</v>
+        <v>8330</v>
       </c>
       <c r="AK75">
         <v>5995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>176022</v>
+      </c>
+      <c r="C76">
+        <v>7139</v>
+      </c>
+      <c r="D76">
+        <v>3532</v>
+      </c>
+      <c r="E76">
+        <v>3606</v>
+      </c>
+      <c r="F76">
+        <v>23996</v>
+      </c>
+      <c r="G76">
+        <v>558</v>
+      </c>
+      <c r="H76">
+        <v>23439</v>
+      </c>
+      <c r="I76">
+        <v>-3</v>
+      </c>
+      <c r="J76">
+        <v>5968</v>
+      </c>
+      <c r="K76">
+        <v>911</v>
+      </c>
+      <c r="L76">
+        <v>5057</v>
+      </c>
+      <c r="M76">
+        <v>115376</v>
+      </c>
+      <c r="N76">
+        <v>96860</v>
+      </c>
+      <c r="O76">
+        <v>1529</v>
+      </c>
+      <c r="P76">
+        <v>16986</v>
+      </c>
+      <c r="Q76">
+        <v>1392</v>
+      </c>
+      <c r="R76">
+        <v>22155</v>
+      </c>
+      <c r="S76">
+        <v>2105</v>
+      </c>
+      <c r="T76">
+        <v>173917</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>10251</v>
+      </c>
+      <c r="X76">
+        <v>308</v>
+      </c>
+      <c r="Y76">
+        <v>9942</v>
+      </c>
+      <c r="Z76">
+        <v>8753</v>
+      </c>
+      <c r="AA76">
+        <v>3643</v>
+      </c>
+      <c r="AB76">
+        <v>5110</v>
+      </c>
+      <c r="AC76">
+        <v>139657</v>
+      </c>
+      <c r="AD76">
+        <v>89787</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>49871</v>
+      </c>
+      <c r="AG76">
+        <v>15256</v>
+      </c>
+      <c r="AH76">
+        <v>37907</v>
+      </c>
+      <c r="AI76">
+        <v>41756</v>
+      </c>
+      <c r="AJ76">
+        <v>8030</v>
+      </c>
+      <c r="AK76">
+        <v>6096</v>
       </c>
     </row>
   </sheetData>
